--- a/Tables/Sources/sdk/ad_placement.xlsx
+++ b/Tables/Sources/sdk/ad_placement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView windowWidth="26890" windowHeight="7930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Inter0</t>
+  </si>
+  <si>
+    <t>MainMixfull</t>
+  </si>
+  <si>
+    <t>MixFull0</t>
   </si>
   <si>
     <t>模块</t>
@@ -294,11 +300,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -327,6 +333,81 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -344,43 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -390,7 +434,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -399,14 +443,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,46 +464,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,21 +479,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -516,175 +522,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,6 +855,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,17 +898,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,25 +941,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,133 +959,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1521,23 +1527,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="39.3333333333333" customWidth="1"/>
-    <col min="2" max="5" width="21.4416666666667" customWidth="1"/>
-    <col min="6" max="6" width="23.775" customWidth="1"/>
-    <col min="7" max="7" width="21.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="24.4416666666667" customWidth="1"/>
-    <col min="9" max="9" width="28.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="39.3363636363636" customWidth="1"/>
+    <col min="2" max="5" width="21.4454545454545" customWidth="1"/>
+    <col min="6" max="6" width="23.7727272727273" customWidth="1"/>
+    <col min="7" max="7" width="21.4454545454545" customWidth="1"/>
+    <col min="8" max="8" width="24.4454545454545" customWidth="1"/>
+    <col min="9" max="9" width="28.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:9">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:9">
+    <row r="2" spans="1:9">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" s="18" t="s">
         <v>9</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:9">
+    <row r="4" spans="1:9">
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5" s="19" t="s">
         <v>21</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:9">
+    <row r="6" spans="1:9">
       <c r="A6" s="19" t="s">
         <v>23</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:9">
+    <row r="7" spans="1:9">
       <c r="A7" s="19" t="s">
         <v>25</v>
       </c>
@@ -1730,6 +1736,32 @@
         <v>-1</v>
       </c>
       <c r="I7" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:9">
+      <c r="A8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>100</v>
+      </c>
+      <c r="G8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1750,76 +1782,76 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="13.1083333333333" customWidth="1"/>
-    <col min="6" max="10" width="24.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.1090909090909" customWidth="1"/>
+    <col min="6" max="10" width="24.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.5" spans="2:10">
+    <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:10">
+    <row r="5" ht="14.5" spans="2:10">
       <c r="B5" s="4"/>
       <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -1827,16 +1859,16 @@
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
     </row>
-    <row r="6" ht="16.5" spans="2:10">
+    <row r="6" ht="14.5" spans="2:10">
       <c r="B6" s="4"/>
       <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -1844,16 +1876,16 @@
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
     </row>
-    <row r="7" ht="16.5" spans="2:10">
+    <row r="7" ht="14.5" spans="2:10">
       <c r="B7" s="4"/>
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -1861,16 +1893,16 @@
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" ht="16.5" spans="2:10">
+    <row r="8" ht="14.5" spans="2:10">
       <c r="B8" s="4"/>
       <c r="C8" s="4">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -1878,16 +1910,16 @@
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="9" ht="16.5" spans="2:10">
+    <row r="9" ht="14.5" spans="2:10">
       <c r="B9" s="4"/>
       <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -1895,31 +1927,31 @@
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="2:15">
+    <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1927,29 +1959,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -1961,10 +1993,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -1983,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2005,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2027,10 +2059,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>
@@ -2076,7 +2108,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Tables/Sources/sdk/ad_placement.xlsx
+++ b/Tables/Sources/sdk/ad_placement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26890" windowHeight="7930"/>
+    <workbookView windowWidth="27110" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -168,12 +168,6 @@
   </si>
   <si>
     <t>Inter0</t>
-  </si>
-  <si>
-    <t>MainMixfull</t>
-  </si>
-  <si>
-    <t>MixFull0</t>
   </si>
   <si>
     <t>模块</t>
@@ -300,11 +294,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -336,9 +330,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,15 +396,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,26 +412,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,44 +438,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -450,22 +459,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,13 +510,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,25 +624,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,13 +666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,109 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,21 +834,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,15 +849,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,6 +873,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,10 +941,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,133 +953,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1527,13 +1521,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="39.3363636363636" customWidth="1"/>
     <col min="2" max="5" width="21.4454545454545" customWidth="1"/>
@@ -1736,32 +1730,6 @@
         <v>-1</v>
       </c>
       <c r="I7" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:9">
-      <c r="A8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>100</v>
-      </c>
-      <c r="G8" s="19">
-        <v>-1</v>
-      </c>
-      <c r="H8" s="19">
-        <v>-1</v>
-      </c>
-      <c r="I8" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1790,56 +1758,56 @@
   <sheetData>
     <row r="3" ht="14.5" spans="2:10">
       <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1" spans="2:10">
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="G4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="14.5" spans="2:10">
@@ -1848,10 +1816,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="6"/>
@@ -1865,10 +1833,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="6"/>
@@ -1882,10 +1850,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="6"/>
@@ -1899,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6"/>
@@ -1916,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
@@ -1929,29 +1897,29 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="14.5" spans="2:15">
       <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1959,29 +1927,29 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="16.5" customHeight="1" spans="2:15">
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -1993,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -2015,10 +1983,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="6"/>
@@ -2037,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="6"/>
@@ -2059,10 +2027,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="6"/>
